--- a/static/Aprobadores lecturas.xlsx
+++ b/static/Aprobadores lecturas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sorozco\Downloads\Rechazos 1\Rechazos\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sorozco\Downloads\Aplicación rechazos depósitos 4\Aplicación rechazos depósitos\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A895D719-03FF-47F9-8323-D6DCCA379700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE9F4BF-880E-405D-B495-AD455C85293D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{65FFA62B-2C34-4A4C-880D-FF0A16F25CCD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Nombre aprobador</t>
   </si>
@@ -44,38 +44,35 @@
     <t>Victor Alfonso Gil Pemberthy (Jefe)</t>
   </si>
   <si>
+    <t>Orden</t>
+  </si>
+  <si>
+    <t>Angela Maria Hoyos Alvarez (Jefe)</t>
+  </si>
+  <si>
+    <t>Lady Johanna Munoz Carrillo (Jefe)</t>
+  </si>
+  <si>
+    <t>Monica Maria Cardona Suarez (Gerente)</t>
+  </si>
+  <si>
     <t>Leydi Viviana Vasquez Gallo (Jefe)</t>
   </si>
   <si>
     <t>Maria Fernanda Londono Gallego (Gerente)</t>
-  </si>
-  <si>
-    <t>Orden</t>
-  </si>
-  <si>
-    <t>Angela Maria Hoyos Alvarez (Jefe)</t>
-  </si>
-  <si>
-    <t>Lady Johanna Munoz Carrillo (Jefe)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF202124"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <b/>
@@ -126,10 +123,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -450,7 +446,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -459,55 +455,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
